--- a/experience/sub-28AP/resultats_RT_sub-28AP.xlsx
+++ b/experience/sub-28AP/resultats_RT_sub-28AP.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{040EFD2A-E652-47E2-9681-04E891692896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1320" windowWidth="14400" windowHeight="7360"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultats_RT_sub-28AP (2)" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,25 @@
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'resultats_RT_sub-28AP (2)'!$A$1:$M$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - resultats_RT_sub-28AP" description="Connexion à la requête « resultats_RT_sub-28AP » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - resultats_RT_sub-28AP" description="Connexion à la requête « resultats_RT_sub-28AP » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=resultats_RT_sub-28AP;Extended Properties=&quot;&quot;" command="SELECT * FROM [resultats_RT_sub-28AP]"/>
   </connection>
 </connections>
@@ -160,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -689,76 +701,76 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -780,7 +792,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
     <queryTableFields count="13">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -802,44 +814,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="resultats_RT_sub_28AP" displayName="resultats_RT_sub_28AP" ref="A1:M12" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="resultats_RT_sub_28AP" displayName="resultats_RT_sub_28AP" ref="A1:M12" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:M11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="1" name="Essai" totalsRowLabel="moy" queryTableFieldId="1" dataDxfId="12" totalsRowDxfId="25"/>
-    <tableColumn id="2" uniqueName="2" name="Haut 0,2" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="11" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" totalsRowLabel="moy" queryTableFieldId="1" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Haut 0,2" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Haut 0,2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="Haut 0,5" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="10" totalsRowDxfId="23">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Haut 0,5" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Haut 0,5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" uniqueName="4" name="Haut 0,8" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="9" totalsRowDxfId="22">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Haut 0,8" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Haut 0,8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" uniqueName="5" name="Bas 0,2" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="8" totalsRowDxfId="21">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Bas 0,2" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Bas 0,2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" uniqueName="6" name="Bas 0,5" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="7" totalsRowDxfId="20">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Bas 0,5" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Bas 0,5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" uniqueName="7" name="Bas 0,8" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="6" totalsRowDxfId="19">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Bas 0,8" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Bas 0,8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" uniqueName="8" name="Gauche 0,2" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="5" totalsRowDxfId="18">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Gauche 0,2" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Gauche 0,2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" uniqueName="9" name="Gauche 0,5" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="4" totalsRowDxfId="17">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Gauche 0,5" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Gauche 0,5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" uniqueName="10" name="Gauche 0,8" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="3" totalsRowDxfId="16">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Gauche 0,8" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Gauche 0,8])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" uniqueName="11" name="Droite 0,2" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="2" totalsRowDxfId="15">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Droite 0,2" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Droite 0,2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" uniqueName="12" name="Droite 0,5" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="1" totalsRowDxfId="14">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Droite 0,5" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Droite 0,5])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" uniqueName="13" name="Droite 0,8" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="0" totalsRowDxfId="13">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Droite 0,8" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(resultats_RT_sub_28AP[Droite 0,8])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1143,11 +1155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2094,7 +2106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
